--- a/doc/需求&计划/计划表.xlsx
+++ b/doc/需求&计划/计划表.xlsx
@@ -4,20 +4,236 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="10665" yWindow="-90" windowWidth="9660" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+  <si>
+    <t>一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改密码 （个人信息）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.银行管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.账户资料（与个人信息合并）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.登陆日志</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.充值（充值管理）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提现（提现管理）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.转账（转账管理）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.在线下级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.账变记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.分红记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.自己盈亏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.下级盈亏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下级账号管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.团队余额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.游戏记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.流水记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.公告管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理功能一般包含增删改查（具体情况视业务而定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户管理</t>
+  </si>
+  <si>
+    <t>2.权限管理</t>
+  </si>
+  <si>
+    <t>登陆日志</t>
+  </si>
+  <si>
+    <t>1.充值审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提现审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.手动调整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.分红管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统银行</t>
+  </si>
+  <si>
+    <t>充值历史</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现历史</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优惠项目管理</t>
+  </si>
+  <si>
+    <t>2.优惠管理</t>
+  </si>
+  <si>
+    <t>1.游戏记录</t>
+  </si>
+  <si>
+    <t>2.流水记录</t>
+  </si>
+  <si>
+    <t>3.盈亏记录</t>
+  </si>
+  <si>
+    <t>4.充值记录</t>
+  </si>
+  <si>
+    <t>5.提现记录</t>
+  </si>
+  <si>
+    <t>6.账变记录</t>
+  </si>
+  <si>
+    <t>7.公司银行卡报表</t>
+  </si>
+  <si>
+    <t>8.账户银行卡记录</t>
+  </si>
+  <si>
+    <t>9.分红记录</t>
+  </si>
+  <si>
+    <t>一期：7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不要管银行的对接接口</t>
+  </si>
+  <si>
+    <t>先不要管银行的对接接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击充值先显示充值历史，上面一个充值按钮，弹框出来是充值表单，表提交，进入后台审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +246,41 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,9 +307,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +632,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="14.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="14.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="14.25">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="14.25">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="40.5">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="14.25">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="14.25">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.25">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.25">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.25">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="14.25">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="14.25">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="14.25">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.25">
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="14.25">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="14.25">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="14.25">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="14.25">
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="14.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="14.25">
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" ht="14.25">
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" ht="14.25">
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" ht="14.25">
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="14.25">
+      <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="14.25">
+      <c r="B39" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="14.25">
+      <c r="B40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="14.25">
+      <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="14.25">
+      <c r="B42" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="14.25">
+      <c r="B43" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="14.25">
+      <c r="B47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="14.25">
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="14.25">
+      <c r="B49" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="14.25">
+      <c r="B50" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="14.25">
+      <c r="B58" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="14.25">
+      <c r="B59" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/需求&计划/计划表.xlsx
+++ b/doc/需求&计划/计划表.xlsx
@@ -110,122 +110,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>管理功能一般包含增删改查（具体情况视业务而定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户管理</t>
+  </si>
+  <si>
+    <t>2.权限管理</t>
+  </si>
+  <si>
+    <t>登陆日志</t>
+  </si>
+  <si>
+    <t>2.提现审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.手动调整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.分红管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值历史</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现历史</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优惠项目管理</t>
+  </si>
+  <si>
+    <t>2.优惠管理</t>
+  </si>
+  <si>
+    <t>1.游戏记录</t>
+  </si>
+  <si>
+    <t>2.流水记录</t>
+  </si>
+  <si>
+    <t>3.盈亏记录</t>
+  </si>
+  <si>
+    <t>4.充值记录</t>
+  </si>
+  <si>
+    <t>5.提现记录</t>
+  </si>
+  <si>
+    <t>6.账变记录</t>
+  </si>
+  <si>
+    <t>9.分红记录</t>
+  </si>
+  <si>
+    <t>一期：7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不要管银行的对接接口</t>
+  </si>
+  <si>
+    <t>先不要管银行的对接接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击充值先显示充值历史，上面一个充值按钮，弹框出来是充值表单，表提交，进入后台审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4.公告管理</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>管理功能一般包含增删改查（具体情况视业务而定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.用户管理</t>
-  </si>
-  <si>
-    <t>2.权限管理</t>
-  </si>
-  <si>
-    <t>登陆日志</t>
+    <t>1.系统银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.充值审核</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2.提现审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.手动调整</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.分红管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.系统银行</t>
-  </si>
-  <si>
-    <t>充值历史</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现历史</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.优惠项目管理</t>
-  </si>
-  <si>
-    <t>2.优惠管理</t>
-  </si>
-  <si>
-    <t>1.游戏记录</t>
-  </si>
-  <si>
-    <t>2.流水记录</t>
-  </si>
-  <si>
-    <t>3.盈亏记录</t>
-  </si>
-  <si>
-    <t>4.充值记录</t>
-  </si>
-  <si>
-    <t>5.提现记录</t>
-  </si>
-  <si>
-    <t>6.账变记录</t>
-  </si>
-  <si>
     <t>7.公司银行卡报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8.账户银行卡记录</t>
-  </si>
-  <si>
-    <t>9.分红记录</t>
-  </si>
-  <si>
-    <t>一期：7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先不要管银行的对接接口</t>
-  </si>
-  <si>
-    <t>先不要管银行的对接接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击充值先显示充值历史，上面一个充值按钮，弹框出来是充值表单，表提交，进入后台审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,12 +288,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,25 +333,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D60"/>
+  <dimension ref="A3:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -645,29 +672,32 @@
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="40.5" customHeight="1">
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:4">
+    <row r="3" spans="1:4" ht="40.5" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>42135</v>
+      </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -675,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.25">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -683,52 +713,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="14.25">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.25">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="14.25">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="40.5">
+    <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="14.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="14.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -738,7 +768,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25">
@@ -756,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25">
@@ -764,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25">
@@ -782,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.25">
@@ -802,14 +832,14 @@
     </row>
     <row r="30" spans="2:3" ht="14.25">
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
+    <row r="32" spans="2:3" s="13" customFormat="1">
+      <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -820,55 +850,55 @@
     </row>
     <row r="34" spans="2:3" ht="14.25">
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" ht="14.25">
-      <c r="B35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
+    <row r="35" spans="2:3" s="10" customFormat="1" ht="14.25">
+      <c r="B35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="2:3" ht="14.25">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" ht="14.25">
+      <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="14.25">
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="14.25">
+      <c r="B39" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="10" customFormat="1" ht="14.25">
+      <c r="B40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" ht="14.25">
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="41" spans="2:3" ht="14.25">
+      <c r="B41" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="14.25">
-      <c r="B38" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="14.25">
-      <c r="B39" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="14.25">
-      <c r="B40" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="14.25">
-      <c r="B41" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="42" spans="2:3" ht="14.25">
-      <c r="B42" s="6" t="s">
-        <v>44</v>
+      <c r="B42" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="14.25">
-      <c r="B43" s="6" t="s">
-        <v>45</v>
+      <c r="B43" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -877,68 +907,68 @@
       </c>
     </row>
     <row r="47" spans="2:3" ht="14.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="14.25">
+      <c r="B48" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="14.25">
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="14.25">
+      <c r="B50" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="14.25">
-      <c r="B48" s="6" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="14.25">
-      <c r="B49" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="14.25">
-      <c r="B50" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="14.25">
+      <c r="B58" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="14.25">
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="2:2" ht="14.25">
+      <c r="B59" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="14.25">
-      <c r="B59" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/需求&计划/计划表.xlsx
+++ b/doc/需求&计划/计划表.xlsx
@@ -212,24 +212,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.系统银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.充值审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.公司银行卡报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.账户银行卡记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4.公告管理</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.系统银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.充值审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.公司银行卡报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.账户银行卡记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="A3:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -850,19 +850,19 @@
     </row>
     <row r="34" spans="2:3" ht="14.25">
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" s="10" customFormat="1" ht="14.25">
       <c r="B35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="2:3" ht="14.25">
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -893,12 +893,12 @@
     </row>
     <row r="42" spans="2:3" ht="14.25">
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="14.25">
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:3">
